--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB021A4-CC2E-EB45-BDC6-63290077C4FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8E8D75-4D79-7B43-A9F3-289E082D8147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="960" windowWidth="27840" windowHeight="15800" xr2:uid="{FA237F59-C689-874C-8531-5B25B71190D6}"/>
+    <workbookView xWindow="660" yWindow="900" windowWidth="27840" windowHeight="15800" xr2:uid="{FA237F59-C689-874C-8531-5B25B71190D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>推荐-day6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实战-推荐-基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +117,30 @@
   </si>
   <si>
     <t>黑马推荐、推荐算法实战、DL花书、DL500问、项目细节、tensorflow、pytorch、西瓜书、百面ML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目1整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目2整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目3整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目4整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目5整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目6整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,8 +149,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="m/d;@"/>
-    <numFmt numFmtId="183" formatCode="[$-804]aaaa;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="[$-804]aaaa;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -181,19 +201,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -208,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -528,7 +548,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -554,7 +574,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -620,7 +640,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -631,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -642,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -653,7 +673,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -664,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -675,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -807,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -818,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -829,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -840,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -850,6 +870,9 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C28" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
@@ -858,6 +881,9 @@
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C29" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
@@ -869,7 +895,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8E8D75-4D79-7B43-A9F3-289E082D8147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB078C19-B1B6-2149-B915-7B4480716517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="900" windowWidth="27840" windowHeight="15800" xr2:uid="{FA237F59-C689-874C-8531-5B25B71190D6}"/>
+    <workbookView xWindow="660" yWindow="760" windowWidth="27840" windowHeight="15800" xr2:uid="{FA237F59-C689-874C-8531-5B25B71190D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>推荐-day6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,21 @@
   </si>
   <si>
     <t>项目6整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目流程、涉及到的表及其结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 学习了，在线的Item召回、在线的排序、推荐结果做二级缓存
+2. 复习了推荐系统的业务流架构、多路召回、排序、user-based CF与item-based CF的差别（ML）
+3. 复习了ROC曲线的绘制、AUC的计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 在线召回、排序
+2. 理解记忆ALS、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -228,8 +243,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,7 +569,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -556,11 +577,11 @@
     <col min="1" max="1" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" style="9" customWidth="1"/>
-    <col min="4" max="4" width="27" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.1640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -573,11 +594,11 @@
       <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="118" customHeight="1">
       <c r="A2" s="1">
         <v>43943</v>
       </c>
@@ -586,6 +607,12 @@
       </c>
       <c r="C2" s="9" t="s">
         <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -620,6 +647,9 @@
       <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
@@ -894,13 +924,13 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB078C19-B1B6-2149-B915-7B4480716517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A576E6C7-4FCB-0A44-8FD3-5035C0CB615C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="760" windowWidth="27840" windowHeight="15800" xr2:uid="{FA237F59-C689-874C-8531-5B25B71190D6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>推荐-day6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,7 +155,12 @@
   </si>
   <si>
     <t>1. 在线召回、排序
-2. 理解记忆ALS、</t>
+2. 理解记忆ALS及其公式推导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 推荐相关
+2. 理解记忆SVM及其公式推导 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -248,9 +253,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,7 +571,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -608,14 +610,14 @@
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="122" customHeight="1">
       <c r="A3" s="1">
         <v>43944</v>
       </c>
@@ -624,6 +626,9 @@
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A576E6C7-4FCB-0A44-8FD3-5035C0CB615C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD836644-5091-2E4E-A4A1-19B33246CED6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="760" windowWidth="27840" windowHeight="15800" xr2:uid="{FA237F59-C689-874C-8531-5B25B71190D6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>推荐-day6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,8 +159,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 推荐相关
-2. 理解记忆SVM及其公式推导 </t>
+    <r>
+      <t>1. 由于工作原因，无法完成视频学习任务
+2. SVM理解记忆到硬间隔最大化
+心得：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>节约学习时间，提高学习效率，多用心记，默写关键公式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 推荐相关-TensorFlow
+2. 理解记忆SVM及其公式推导
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 继续day7，基于TensorFlow的推荐
+2. 理解记忆SVM公式推导、代码参数
+3. 完成AUC、ROC代码编写
+4. 如何提高hashmap的查找效率 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +200,7 @@
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaaa;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +213,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -571,7 +608,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -628,10 +665,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="132" customHeight="1">
       <c r="A4" s="1">
         <v>43945</v>
       </c>
@@ -640,6 +680,9 @@
       </c>
       <c r="C4" s="9" t="s">
         <v>2</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD836644-5091-2E4E-A4A1-19B33246CED6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FB898B-8ED8-504A-AE0C-2DEBA26FA894}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="760" windowWidth="27840" windowHeight="15800" xr2:uid="{FA237F59-C689-874C-8531-5B25B71190D6}"/>
+    <workbookView xWindow="660" yWindow="700" windowWidth="27840" windowHeight="15800" xr2:uid="{FA237F59-C689-874C-8531-5B25B71190D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="4-5月" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>推荐-day6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,10 +185,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. SVD与ALS的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">1. 继续day7，基于TensorFlow的推荐
 2. 理解记忆SVM公式推导、代码参数
-3. 完成AUC、ROC代码编写
-4. 如何提高hashmap的查找效率 </t>
+3. 计算AUC、ROC代码编写
+4. 如何提高hashmap的查找效率
+5. Matrix Differential
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. L1 与L2 的区别（L1稀疏性，等值线，L2防止过拟合）
+2. 结构风险 = 经验风险 + 正则化项
+3. 矩阵运算、求微分（ALS中，一行的矩阵乘以一列矩阵，结果为一个数值，可转换为一列乘以一行）
+4. Slater条件、Slater定理、KKT条件（凸优化）
+5. SVM与感知机的区别
+6. 点到直线的距离公式
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,42 +274,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,380 +622,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020D08A1-8C1C-9B40-B9B5-F7DBADD5BB24}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27" style="9" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="45.1640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="69" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="17" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="118" customHeight="1">
-      <c r="A2" s="1">
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="118" customHeight="1">
+      <c r="A2" s="8">
         <v>43943</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="122" customHeight="1">
-      <c r="A3" s="1">
+      <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="122" customHeight="1">
+      <c r="A3" s="8">
         <v>43944</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="132" customHeight="1">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6" ht="132" customHeight="1">
+      <c r="A4" s="8">
         <v>43945</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="D4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
         <v>43946</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6">
+      <c r="A6" s="8">
         <v>43947</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
         <v>43948</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
         <v>43949</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
         <v>43950</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
         <v>43951</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
         <v>43952</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
         <v>43953</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
         <v>43954</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
         <v>43955</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
+    <row r="15" spans="1:6">
+      <c r="A15" s="8">
         <v>43956</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
         <v>43957</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>43958</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>43959</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>43960</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="8">
         <v>43961</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="8">
         <v>43962</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="8">
         <v>43963</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="8">
         <v>43964</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="A24" s="8">
         <v>43965</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="A25" s="8">
         <v>43966</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="A26" s="8">
         <v>43967</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="A27" s="8">
         <v>43968</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="A28" s="8">
         <v>43969</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="A29" s="8">
         <v>43970</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="A30" s="8">
         <v>43971</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FB898B-8ED8-504A-AE0C-2DEBA26FA894}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F86EF44-8A9F-EF43-955E-B17B0E7DCA77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="700" windowWidth="27840" windowHeight="15800" xr2:uid="{FA237F59-C689-874C-8531-5B25B71190D6}"/>
+    <workbookView xWindow="120" yWindow="680" windowWidth="27840" windowHeight="15800" xr2:uid="{FA237F59-C689-874C-8531-5B25B71190D6}"/>
   </bookViews>
   <sheets>
     <sheet name="4-5月" sheetId="1" r:id="rId1"/>
@@ -145,12 +145,6 @@
   </si>
   <si>
     <t>项目流程、涉及到的表及其结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 学习了，在线的Item召回、在线的排序、推荐结果做二级缓存
-2. 复习了推荐系统的业务流架构、多路召回、排序、user-based CF与item-based CF的差别（ML）
-3. 复习了ROC曲线的绘制、AUC的计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -202,12 +196,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 学习了，在线的Item召回、在线的排序、推荐结果做二级缓存
+2. 复习了推荐系统的业务流架构、多路召回、排序、user-based CF与item-based CF的差别（ML）
+3. 复习了ROC曲线的绘制、AUC的计算(TPR、FPR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">1. L1 与L2 的区别（L1稀疏性，等值线，L2防止过拟合）
 2. 结构风险 = 经验风险 + 正则化项
 3. 矩阵运算、求微分（ALS中，一行的矩阵乘以一列矩阵，结果为一个数值，可转换为一列乘以一行）
 4. Slater条件、Slater定理、KKT条件（凸优化）
 5. SVM与感知机的区别
 6. 点到直线的距离公式
+7. word2vec(CBOW、SKIP—GRAM) 更新w,b,x.    (softmax、交叉熵损失)
+8. 常用特征处理方法: 缺失值处理、one-hot编码(语义鸿沟)、将数值型数据,进行分桶到类别型 (深度学习,常用操作)
+9. estimator创建流程(编写导入函数、定义特征列、实例化estimator、训练评估)
+10. 文本相似度计算方法(TF-IDF、TextRank、Word2Vec)
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,20 +297,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,25 +628,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020D08A1-8C1C-9B40-B9B5-F7DBADD5BB24}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="27" style="4" customWidth="1"/>
     <col min="4" max="4" width="38.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="69" style="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="17" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -655,68 +659,68 @@
         <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="118" customHeight="1">
+      <c r="A2" s="7">
+        <v>43943</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="118" customHeight="1">
-      <c r="A2" s="8">
-        <v>43943</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    <row r="3" spans="1:6" ht="122" customHeight="1">
+      <c r="A3" s="7">
+        <v>43944</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="197" customHeight="1">
+      <c r="A4" s="7">
+        <v>43945</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="122" customHeight="1">
-      <c r="A3" s="8">
-        <v>43944</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="132" customHeight="1">
-      <c r="A4" s="8">
-        <v>43945</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>43946</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -727,10 +731,10 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>43947</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -738,10 +742,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>43948</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -749,10 +753,10 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>43949</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -760,10 +764,10 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>43950</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -771,10 +775,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>43951</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -782,10 +786,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>43952</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -793,10 +797,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>43953</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -804,10 +808,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>43954</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -815,10 +819,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>43955</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -826,10 +830,10 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>43956</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -837,10 +841,10 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>43957</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -848,10 +852,10 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>43958</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -859,10 +863,10 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>43959</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -870,10 +874,10 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>43960</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -881,10 +885,10 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>43961</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -892,10 +896,10 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>43962</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -903,10 +907,10 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>43963</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -914,10 +918,10 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>43964</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -925,10 +929,10 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>43965</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -936,10 +940,10 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>43966</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -947,10 +951,10 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>43967</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -958,10 +962,10 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>43968</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -969,10 +973,10 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>43969</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -980,10 +984,10 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>43970</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -991,21 +995,21 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>43971</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6744C304-1141-9641-9FAD-5724927B827E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11520"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-5月" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>日期</t>
   </si>
@@ -68,6 +74,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>1. 由于工作原因，无法完成视频学习任务
@@ -80,6 +87,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>节约学习时间，提高学习效率，多用心记，默写关键公式</t>
@@ -133,9 +141,6 @@
     <t>星期日</t>
   </si>
   <si>
-    <t>项目流程、涉及到的表及其结构</t>
-  </si>
-  <si>
     <t>星期一</t>
   </si>
   <si>
@@ -182,21 +187,65 @@
   </si>
   <si>
     <t>黑马推荐、推荐算法实战、DL花书、DL500问、项目细节、tensorflow、pytorch、西瓜书、百面ML</t>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 继续day7-day8的学习
+2. 看深度学习运用到RS的文章
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增加自己的见识</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 常见的词向量模型: LDA(LDA不只解决了同义词的问题，还解决了一次多义的问题)、word2vec
+2. embedding流程(分词、索引、向量化、word2vec)
+3. TFRecords文件的生成(封装columns、labels)
+4. Wide&amp;Deep.  Wide (LR): 特征交叉
+                            Deep(DNN): 挖掘高阶非线性特征 
+5. FTRL (Follow the Regularized Leader) : 适合大量稀疏特征、大数据场景 , 稀疏模型并且防止过拟合
+    L2 (权重衰减): 减少权重值的大小, 防止过拟合
+6. 正则化原理 \ 精度和稀疏达到 trade-off (平衡)
+7. 召回-粗排-精排(LTR)-推荐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaaa;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,154 +254,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,11 +266,34 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,194 +306,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -572,255 +315,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,65 +352,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1167,29 +630,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.1666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.1666666666667" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="4" customWidth="1"/>
-    <col min="4" max="4" width="38.1666666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="45.1666666666667" style="4" customWidth="1"/>
-    <col min="6" max="6" width="93.6666666666667" style="5" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="45.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="118" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="118" customHeight="1">
       <c r="A2" s="2">
         <v>43943</v>
       </c>
@@ -1229,7 +692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="122" customHeight="1" spans="1:5">
+    <row r="3" spans="1:6" ht="108" customHeight="1">
       <c r="A3" s="2">
         <v>43944</v>
       </c>
@@ -1246,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="197" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="197" customHeight="1">
       <c r="A4" s="2">
         <v>43945</v>
       </c>
@@ -1266,7 +729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="108" customHeight="1" spans="1:5">
+    <row r="5" spans="1:6" ht="108" customHeight="1">
       <c r="A5" s="2">
         <v>43946</v>
       </c>
@@ -1283,43 +746,46 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="90" customHeight="1" spans="1:4">
+    <row r="6" spans="1:6" ht="162" customHeight="1">
       <c r="A6" s="2">
         <v>43947</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>43948</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>43949</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>43950</v>
       </c>
@@ -1327,10 +793,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>43951</v>
       </c>
@@ -1338,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>43952</v>
       </c>
@@ -1349,10 +815,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>43953</v>
       </c>
@@ -1360,10 +826,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>43954</v>
       </c>
@@ -1374,29 +840,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>43955</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>43956</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>43957</v>
       </c>
@@ -1404,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1415,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1426,7 +892,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1437,7 +903,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1448,7 +914,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1456,10 +922,10 @@
         <v>43962</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1467,10 +933,10 @@
         <v>43963</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1481,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1492,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1503,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1514,7 +980,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1525,7 +991,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1533,10 +999,10 @@
         <v>43969</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1544,13 +1010,13 @@
         <v>43970</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>43971</v>
       </c>
@@ -1559,19 +1025,19 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="A34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A34:E34"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6744C304-1141-9641-9FAD-5724927B827E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2820A259-4EE1-594C-B2E0-C1EA53CAB06A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>日期</t>
   </si>
@@ -234,6 +234,42 @@
     L2 (权重衰减): 减少权重值的大小, 防止过拟合
 6. 正则化原理 \ 精度和稀疏达到 trade-off (平衡)
 7. 召回-粗排-精排(LTR)-推荐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 复习了常用的特征处理方法
+2. 复习了正则化原理
+3. 学习了基于TF做FTRL在线排序模型
+心得: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">以机器学习理念为基础, 致力于深度学习 </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 完成day8学习
+2. 做好复习总结(流程梳理、优化)
+3. 理论结合业务流架构
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 初步接触GNN、GCN在RS中的应用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. SOTA(state of the art)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,6 +396,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -759,11 +798,14 @@
       <c r="D6" s="11" t="s">
         <v>42</v>
       </c>
+      <c r="E6" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="F6" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="137" customHeight="1">
       <c r="A7" s="2">
         <v>43948</v>
       </c>
@@ -772,6 +814,15 @@
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2820A259-4EE1-594C-B2E0-C1EA53CAB06A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAD124C-D8FF-9D4C-B0C4-8ABD3D5E726B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,10 +237,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">1. 完成day8学习
+2. 做好复习总结(流程梳理、优化)
+3. 理论结合业务流架构
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1. 复习了常用的特征处理方法
-2. 复习了正则化原理
-3. 学习了基于TF做FTRL在线排序模型
+      <t xml:space="preserve">1. 复习了常用的特征处理方法(离散化、归一化)
+2. 复习了L1、L2正则化原理
+3. 学习了基于TF做FTRL离线排序模型
+4. 复习了决策树生成步骤
+5. 复习了softmax公式、cross-entropy公式
 心得: </t>
     </r>
     <r>
@@ -258,18 +267,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 完成day8学习
-2. 做好复习总结(流程梳理、优化)
-3. 理论结合业务流架构
-</t>
+    <t>1. 初步接触GNN、GCN在RS中的应用
+2. FTRL + LR 离线排序模型的原理与使用
+3. Wide&amp;Deep训练与TF Serving部署
+4. 常用参数调优值</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1. 初步接触GNN、GCN在RS中的应用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. SOTA(state of the art)</t>
+    <t>1. SOTA(state of the art)
+2. PageRank、TextRank原理
+3. User-based CF、Item-based CF、SVD原理
+4. item2item挖掘算法
+5. CrossValidator、GridSearchCV、TPOT超参数调优</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,9 +405,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -799,7 +805,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>43</v>
@@ -816,12 +822,12 @@
         <v>26</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>47</v>
       </c>
     </row>

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAD124C-D8FF-9D4C-B0C4-8ABD3D5E726B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD17B3F-1A6A-2548-A14F-89697C5991AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,18 +267,21 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>1. SOTA(state of the art)
+2. PageRank、TextRank原理
+3. User-based CF: 推荐列表 = 用户之间的相似度矩阵 X 评分矩阵
+    Item-based CF: 推荐列表 = 商品之间的相似度矩阵 X 评分矩阵转置 (无论是user CF. 还是Item CF在计算相似度矩阵的时候, 计算量太大, 不可取)
+4. item2item挖掘算法, 矩阵分解
+5. CrossValidator、GridSearchCV、TPOT超参数调优
+6. 相似度计算方式(共现相似度、余弦相似度、切比雪夫距离、欧里几得距离、曼哈顿距离、杰卡德距离、皮尔森系数)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 初步接触GNN、GCN在RS中的应用
 2. FTRL + LR 离线排序模型的原理与使用
 3. Wide&amp;Deep训练与TF Serving部署
-4. 常用参数调优值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. SOTA(state of the art)
-2. PageRank、TextRank原理
-3. User-based CF、Item-based CF、SVD原理
-4. item2item挖掘算法
-5. CrossValidator、GridSearchCV、TPOT超参数调优</t>
+4. 常用参数调优值
+5. 实战-CF-基于相似行为的召回</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -683,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -694,7 +697,7 @@
     <col min="3" max="3" width="27" style="4" customWidth="1"/>
     <col min="4" max="4" width="38.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="45.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="109.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="17" customHeight="1">
@@ -811,7 +814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="137" customHeight="1">
+    <row r="7" spans="1:6" ht="161" customHeight="1">
       <c r="A7" s="2">
         <v>43948</v>
       </c>
@@ -825,10 +828,10 @@
         <v>44</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD17B3F-1A6A-2548-A14F-89697C5991AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD39101-7E00-BA4B-B438-623C4FB3490B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-5月" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>日期</t>
   </si>
@@ -282,6 +282,26 @@
 3. Wide&amp;Deep训练与TF Serving部署
 4. 常用参数调优值
 5. 实战-CF-基于相似行为的召回</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 看了推荐实战-基于内容相似的召回-word2vec(Bayes、哈夫曼树、负采样)
+2. 看了推荐实战-线性排序模型-LR 
+总结: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>推荐实战适用于记理论, 七月在线工业界实践</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -686,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -695,8 +715,8 @@
     <col min="1" max="1" width="14.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="4" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="45.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="49" style="4" customWidth="1"/>
     <col min="6" max="6" width="109.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -834,7 +854,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="100" customHeight="1">
       <c r="A8" s="2">
         <v>43949</v>
       </c>
@@ -844,8 +864,11 @@
       <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="79" customHeight="1">
       <c r="A9" s="2">
         <v>43950</v>
       </c>

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD39101-7E00-BA4B-B438-623C4FB3490B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8E2E8A-9BBF-0F4C-B5A9-47B7AC5ECCE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-5月" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>日期</t>
   </si>
@@ -302,6 +302,16 @@
       </rPr>
       <t>推荐实战适用于记理论, 七月在线工业界实践</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. LR公式推导
+2. pytorch-DL-Basic</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 常见的判别模型有：KNN、SVM、LR；常见的生成模型有：朴素贝叶斯，隐马尔可夫模型
+2. LR与SVM的区别</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +371,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -428,6 +444,18 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,15 +734,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="34.83203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="49" style="4" customWidth="1"/>
     <col min="6" max="6" width="109.83203125" style="5" customWidth="1"/>
@@ -878,96 +906,126 @@
       <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
+      <c r="A10" s="13">
         <v>43951</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2">
+      <c r="A11" s="13">
         <v>43952</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="15" t="s">
         <v>31</v>
       </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2">
+      <c r="A12" s="13">
         <v>43953</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2">
+      <c r="A13" s="13">
         <v>43954</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2">
+      <c r="A14" s="13">
         <v>43955</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="15" t="s">
         <v>33</v>
       </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2">
+      <c r="A15" s="13">
         <v>43956</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="15" t="s">
         <v>33</v>
       </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2">
+      <c r="A16" s="13">
         <v>43957</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
+      <c r="D16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13">
         <v>43958</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>43959</v>
       </c>
@@ -978,7 +1036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>43960</v>
       </c>
@@ -989,7 +1047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>43961</v>
       </c>
@@ -1000,7 +1058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>43962</v>
       </c>
@@ -1011,7 +1069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>43963</v>
       </c>
@@ -1022,7 +1080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>43964</v>
       </c>
@@ -1033,7 +1091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>43965</v>
       </c>
@@ -1044,7 +1102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>43966</v>
       </c>
@@ -1055,7 +1113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>43967</v>
       </c>
@@ -1066,7 +1124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>43968</v>
       </c>
@@ -1077,7 +1135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>43969</v>
       </c>
@@ -1088,7 +1146,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>43970</v>
       </c>
@@ -1099,7 +1157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>43971</v>
       </c>

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8E2E8A-9BBF-0F4C-B5A9-47B7AC5ECCE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0734E7AD-3358-9348-B419-45413C1D2EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-5月" sheetId="1" r:id="rId1"/>
+    <sheet name="5-6月" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>日期</t>
   </si>
@@ -154,39 +155,6 @@
   </si>
   <si>
     <t>实战-推荐-排序-线性模型</t>
-  </si>
-  <si>
-    <t>实战-推荐-排序-树模型</t>
-  </si>
-  <si>
-    <t>实战-推荐-排序-深度学习模型</t>
-  </si>
-  <si>
-    <t>实战-推荐-项目案例</t>
-  </si>
-  <si>
-    <t>DL-花书</t>
-  </si>
-  <si>
-    <t>项目1整理</t>
-  </si>
-  <si>
-    <t>项目2整理</t>
-  </si>
-  <si>
-    <t>项目3整理</t>
-  </si>
-  <si>
-    <t>项目4整理</t>
-  </si>
-  <si>
-    <t>项目5整理</t>
-  </si>
-  <si>
-    <t>项目6整理</t>
-  </si>
-  <si>
-    <t>黑马推荐、推荐算法实战、DL花书、DL500问、项目细节、tensorflow、pytorch、西瓜书、百面ML</t>
   </si>
   <si>
     <t>总结</t>
@@ -314,14 +282,95 @@
 2. LR与SVM的区别</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>星期四</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月在线-推荐系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 常见的召回算法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. SVD的缺点: 缺失值和观测到的数据权重相同、没有正则项容易过拟合 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑马推荐、推荐算法实战、DL花书、DL500问、项目细节、tensorflow、pytorch、西瓜书、百面ML</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期一</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 深度学习-1-深度学习总体介绍
+2. 深度学习-2-传统神经网络</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 常见的特征预处理(归一化、降维、去噪、缺失值处理)
+2. 常见的特征提取方法
+                图像数据:SIFT、Fisher、LBP
+                语音数据:w2c、FMCC
+3. 深度学习: 学习能力强、效果好、覆盖范围广、可迁移性好(迁移学习)
+                      可解释性差、中间过程控制性差
+4. sigmoid: 将输入数据映射到[0, 1], 梯度下降明显
+    tanh: 将输入数据映射到[-1, 1], 梯度损失明显
+    ReLu: 正向截断负值、损失大量特征(特征足够多,不怕损失), 反向梯度没有损失
+    Leaky ReLu: 保留更多的参数, 少量梯度反向传播
+5. 常见的损失函数 softmax(分类问题预测效果明显)、cross-entropy、合并多个loss
+6. 过拟合解决方法: Regularization或者weight decay: 使w的值尽量平衡
+dropout(随机选择一些神经元,将其输出置为0, 通常0.5)、
+dropout与pooling的区别:dropout实则是正则化、pooling降低feature的维度
+fine-tuning
+7. 新的梯度更新是在动量投射的基础上, 和直接调大学习率的区别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 神经网络知识结构图
+2. 深度学习应用特点
+3. 神经网络起源:线性回归
+4. 优化算法:梯度下降
+5. 非线性激励(sigmoid、tanh、ReLu、Leaky ReLu)
+6. 神经网络构建(TF实践)
+7. 神经网络组件(损失函数、学习率、动量、过拟合)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 了解深度学习生态圈
+2. 了解深度学习与机器学习应用的差别
+3. 学习了神经网络基础概念
+4. 学习了神经网络重要组件
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系统的学习比零碎的知识点更加完备</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaaa;@"/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -371,7 +420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,12 +430,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,20 +485,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,10 +778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -850,16 +897,16 @@
         <v>24</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="161" customHeight="1">
@@ -873,13 +920,13 @@
         <v>26</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100" customHeight="1">
@@ -893,7 +940,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="79" customHeight="1">
@@ -907,278 +954,301 @@
         <v>29</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13">
-        <v>43951</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="13">
-        <v>43952</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13">
-        <v>43953</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="189" customHeight="1">
+      <c r="A10" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="13">
-        <v>43954</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13">
-        <v>43955</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13">
-        <v>43956</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13">
-        <v>43957</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13">
-        <v>43958</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
-        <v>43959</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
-        <v>43960</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
-        <v>43961</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2">
-        <v>43962</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2">
-        <v>43963</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2">
-        <v>43964</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2">
-        <v>43965</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2">
-        <v>43966</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2">
-        <v>43967</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2">
-        <v>43968</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2">
-        <v>43969</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2">
-        <v>43970</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2">
-        <v>43971</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="A13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1107C1FC-6B41-4840-912C-339E5AD9FCD1}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" customWidth="1"/>
+    <col min="6" max="6" width="77.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="46" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="279" customHeight="1">
+      <c r="A2" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>43981</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>43988</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>43989</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>43996</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0734E7AD-3358-9348-B419-45413C1D2EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C238C7CA-37A3-2A40-8579-B9892C3C87F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-5月" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>日期</t>
   </si>
@@ -360,6 +360,46 @@
       </rPr>
       <t>系统的学习比零碎的知识点更加完备</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大纲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. PCA、LDA原理
+2. SVD原理、SVD++
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 自学算法原理
+2. 结合PPT完成平台短信挖掘项目</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 自学
+2. 修改简历</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. RNN、LSTM原理（完成）
+2. BP算法公式推导（进行中）
+3. TF模型加载及优化（①不加载图结构只加载参数、图结构和参数都要加载 ②二进制加载）
+4. 推荐排序模型（LR、FM、DeepFM、Wide&amp;Deep）
+5. word2vec原理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 复习了RNN、LSTM原理
+2. 学习了BP算法公式推导
+3. 完善了推荐项目
+4. 复习了特征工程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. BPR算法
+</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,6 +536,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -782,7 +825,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -978,13 +1021,13 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -997,11 +1040,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1107C1FC-6B41-4840-912C-339E5AD9FCD1}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1009,7 +1052,7 @@
     <col min="1" max="1" width="12.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" customWidth="1"/>
     <col min="5" max="5" width="41.83203125" customWidth="1"/>
     <col min="6" max="6" width="77.6640625" customWidth="1"/>
     <col min="7" max="7" width="31.1640625" customWidth="1"/>
@@ -1022,8 +1065,8 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
+      <c r="C1" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>3</v>
@@ -1055,195 +1098,109 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="122" customHeight="1">
       <c r="A3" s="2">
-        <v>43977</v>
+        <v>43990</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="122" customHeight="1">
+      <c r="A4" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>43978</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
+      <c r="C4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>43979</v>
+        <v>43992</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>43980</v>
+        <v>43993</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>43981</v>
+        <v>43994</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>43982</v>
+        <v>43995</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>43983</v>
+        <v>43996</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>43984</v>
+        <v>43997</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>43985</v>
+        <v>43998</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>43986</v>
+        <v>43999</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>43987</v>
+        <v>44000</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>43988</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>43989</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>43990</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
-        <v>43991</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
-        <v>43992</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
-        <v>43993</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
-        <v>43994</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
-        <v>43995</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
-        <v>43996</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2">
-        <v>43997</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2">
-        <v>43998</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2">
-        <v>43999</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2">
-        <v>44000</v>
-      </c>
-      <c r="B26" s="12" t="s">
         <v>11</v>
       </c>
     </row>

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C238C7CA-37A3-2A40-8579-B9892C3C87F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75884D06-BD15-8B44-9B56-DFAD17CE2ECA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-5月" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>日期</t>
   </si>
@@ -367,12 +367,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. PCA、LDA原理
-2. SVD原理、SVD++
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 自学算法原理
 2. 结合PPT完成平台短信挖掘项目</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -400,6 +394,27 @@
   <si>
     <t xml:space="preserve">1. BPR算法
 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. PCA求解协方差矩阵的特征值、特征向量，使用SVD右奇异矩阵作为降维之后的矩阵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. PCA、LDA原理（完成）
+2. SVD原理（完成）
+3. 摩子平台短信挖掘项目（完成）
+4. GBDT+LR细节（完成）
+5. 10大基础算法(堆排序)
+6. 初识Attention（从RNN，hidden state到 Encoder-Decoder Seq2Seq、 n vs m、attention）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 常用的相似度计算方法
+2. 复习项目
+3. attention机制
+4. BERT迁移学习
+5. xgboost、gbdt、Adaboost</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +503,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,6 +554,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -824,8 +842,8 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1021,13 +1039,13 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1044,7 +1062,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1106,19 +1124,19 @@
         <v>45</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="122" customHeight="1">
+    </row>
+    <row r="4" spans="1:6" ht="135" customHeight="1">
       <c r="A4" s="2">
         <v>43991</v>
       </c>
@@ -1126,19 +1144,26 @@
         <v>27</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="118" customHeight="1">
       <c r="A5" s="2">
         <v>43992</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75884D06-BD15-8B44-9B56-DFAD17CE2ECA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F31C731-29C9-DE4D-8BFA-B5C54B795BD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-5月" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>日期</t>
   </si>
@@ -410,11 +410,75 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>1. 距离度量
+（闵可夫斯基距离、曼哈顿距离、欧氏距离、切比雪夫距离）
+2. 相似度度量
+（余弦相似度、皮尔逊相似度、KL散度、杰卡德相关度）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 推荐项目架构</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 常用的相似度计算方法
-2. 复习项目
+2. 复习项目-机器学习平台
 3. attention机制
 4. BERT迁移学习
-5. xgboost、gbdt、Adaboost</t>
+5. xgboost、gbdt、Adaboost
+6. 10大基础算法(堆排序)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 总结L1、L2，梯度下降优化
+2. 修改项目
+3. attention机制
+4. bert迁移学习
+5. 10大基础算法(堆排序)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 优化推荐项目</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 商品多模态建模（图像、文字、视频、3D）- BERT实现
+2. DeepFM、DSSM双塔模型
+3. BPR排序
+4. 项目架构</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Bi-LSTM
+2. 项目中遇到的问题
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Attention、Transformer、BERT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. DSSM模型</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 学习ARIMA、CRF、HMM、GMM、EM、fastText、FM、DeepFM、模型压缩、tfidf</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +491,7 @@
     <numFmt numFmtId="177" formatCode="[$-804]aaaa;@"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,6 +537,12 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -841,9 +911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1060,16 +1130,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1107C1FC-6B41-4840-912C-339E5AD9FCD1}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="107" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
     <col min="4" max="4" width="56.33203125" customWidth="1"/>
     <col min="5" max="5" width="41.83203125" customWidth="1"/>
     <col min="6" max="6" width="77.6640625" customWidth="1"/>
@@ -1161,32 +1231,52 @@
         <v>6</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:6" ht="105" customHeight="1">
       <c r="A6" s="2">
         <v>43993</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="115" customHeight="1">
       <c r="A7" s="2">
         <v>43994</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="C7" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="128" customHeight="1">
       <c r="A8" s="2">
         <v>43995</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>20</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F31C731-29C9-DE4D-8BFA-B5C54B795BD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B5B8BF-B5B0-D44A-8F02-256F17486E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-5月" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>日期</t>
   </si>
@@ -459,7 +459,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>Attention、Transformer、BERT</t>
     </r>
@@ -479,6 +478,38 @@
   </si>
   <si>
     <t>1. 学习ARIMA、CRF、HMM、GMM、EM、fastText、FM、DeepFM、模型压缩、tfidf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Self-Attention与transformer
+2. 平均滑动模型
+3. TensorFlow异步模式训练</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. self-attention、transformer、bert
+2. Attention + BiLSTM
+3. RS的lambda架构</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. bi-lstm项目
+2. bert
+3. faiss工具使用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期五</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 深度学习-3-卷积神经网络-基础</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 深度学习-4-卷积神经网络-高级
+   深度学习-7-递归神经网络
+2. 动手深度学习-优化篇</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +573,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -911,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1128,11 +1158,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1107C1FC-6B41-4840-912C-339E5AD9FCD1}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1140,7 +1170,7 @@
     <col min="1" max="1" width="12.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" customWidth="1"/>
+    <col min="4" max="4" width="37.5" customWidth="1"/>
     <col min="5" max="5" width="41.83203125" customWidth="1"/>
     <col min="6" max="6" width="77.6640625" customWidth="1"/>
     <col min="7" max="7" width="31.1640625" customWidth="1"/>
@@ -1279,7 +1309,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="103" customHeight="1">
       <c r="A9" s="2">
         <v>43996</v>
       </c>
@@ -1287,36 +1317,60 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="116" customHeight="1">
       <c r="A10" s="2">
         <v>43997</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="C10" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="114" customHeight="1">
       <c r="A11" s="2">
         <v>43998</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="109" customHeight="1">
       <c r="A12" s="2">
         <v>43999</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="C12" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="85" customHeight="1">
       <c r="A13" s="2">
         <v>44000</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="53" customHeight="1">
+      <c r="A14" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/初夏计划.xlsx
+++ b/初夏计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/Plan-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B5B8BF-B5B0-D44A-8F02-256F17486E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0DFCA6-2CF3-4B47-ADA1-2FB4BA220C22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>日期</t>
   </si>
@@ -510,6 +510,20 @@
     <t>1. 深度学习-4-卷积神经网络-高级
    深度学习-7-递归神经网络
 2. 动手深度学习-优化篇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户建模
+2. 商品多模态建模
+3. 推荐架构
+4. 项目部署
+5. 数据量级
+6. 模型压缩
+7. 特征工程
+8. 评估指标
+9. ABTest
+10. 排序模型
+11. 召回模型</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1158,11 +1172,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1107C1FC-6B41-4840-912C-339E5AD9FCD1}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1373,6 +1387,17 @@
         <v>71</v>
       </c>
     </row>
+    <row r="15" spans="1:6" ht="188" customHeight="1">
+      <c r="A15" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
